--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>شيكل</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>حساب احمد</t>
+  </si>
+  <si>
+    <t>صندوق  (2)</t>
+  </si>
+  <si>
+    <t>صندوق  (1)</t>
   </si>
 </sst>
 </file>
@@ -366,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -388,7 +394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -399,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7932</v>
+        <v>373950</v>
       </c>
       <c r="E2">
-        <v>8915</v>
+        <v>6570</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -410,8 +416,11 @@
       <c r="G2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>48986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -422,10 +431,10 @@
         <v>3.47</v>
       </c>
       <c r="D3">
-        <v>702741</v>
+        <v>556746</v>
       </c>
       <c r="E3">
-        <v>33880</v>
+        <v>621</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -433,8 +442,11 @@
       <c r="G3">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>795633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -445,10 +457,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>33586</v>
+        <v>-45040</v>
       </c>
       <c r="E4">
-        <v>1309</v>
+        <v>-2987</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -456,8 +468,11 @@
       <c r="G4">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -479,8 +494,11 @@
       <c r="G5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="G6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>24586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -514,7 +535,7 @@
         <v>21.459</v>
       </c>
       <c r="D7">
-        <v>4585</v>
+        <v>8085</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -524,6 +545,37 @@
       </c>
       <c r="G7">
         <v>31</v>
+      </c>
+      <c r="H7">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>13670</v>
+      </c>
+      <c r="D10">
+        <v>-235295</v>
+      </c>
+      <c r="E10">
+        <v>22705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-13670</v>
+      </c>
+      <c r="D11">
+        <v>235295</v>
+      </c>
+      <c r="E11">
+        <v>-22705</v>
       </c>
     </row>
   </sheetData>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>شيكل</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>حساب احمد</t>
-  </si>
-  <si>
-    <t>صندوق  (2)</t>
-  </si>
-  <si>
-    <t>صندوق  (1)</t>
   </si>
 </sst>
 </file>
@@ -372,15 +366,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -394,7 +391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -405,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>373950</v>
+        <v>428244</v>
       </c>
       <c r="E2">
-        <v>6570</v>
+        <v>8026</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -416,11 +413,8 @@
       <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>48986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -428,13 +422,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="D3">
-        <v>556746</v>
+        <v>397021</v>
       </c>
       <c r="E3">
-        <v>621</v>
+        <v>8602</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -442,11 +436,8 @@
       <c r="G3">
         <v>26</v>
       </c>
-      <c r="H3">
-        <v>795633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -457,10 +448,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-45040</v>
+        <v>-30277</v>
       </c>
       <c r="E4">
-        <v>-2987</v>
+        <v>-971</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -468,11 +459,8 @@
       <c r="G4">
         <v>27</v>
       </c>
-      <c r="H4">
-        <v>11486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -480,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.98</v>
+        <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>7375</v>
+        <v>1875</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -494,11 +482,8 @@
       <c r="G5">
         <v>28</v>
       </c>
-      <c r="H5">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -506,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.65</v>
+        <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>24586</v>
+        <v>23986</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -520,11 +505,8 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>24586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -532,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>21.459</v>
+        <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>8085</v>
+        <v>4595</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -546,38 +528,8 @@
       <c r="G7">
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>5585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>13670</v>
-      </c>
-      <c r="D10">
-        <v>-235295</v>
-      </c>
-      <c r="E10">
-        <v>22705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>-13670</v>
-      </c>
-      <c r="D11">
-        <v>235295</v>
-      </c>
-      <c r="E11">
-        <v>-22705</v>
-      </c>
-    </row>
+    </row>
+    <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>428244</v>
+        <v>552904</v>
       </c>
       <c r="E2">
-        <v>8026</v>
+        <v>11982</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -425,10 +425,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>397021</v>
+        <v>-70633</v>
       </c>
       <c r="E3">
-        <v>8602</v>
+        <v>19912</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -448,10 +448,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-30277</v>
+        <v>-32976</v>
       </c>
       <c r="E4">
-        <v>-971</v>
+        <v>-4809</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -471,7 +471,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>1875</v>
+        <v>330</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -494,7 +494,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>23986</v>
+        <v>21992</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>4595</v>
+        <v>8255</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>552904</v>
+        <v>498991</v>
       </c>
       <c r="E2">
-        <v>11982</v>
+        <v>163</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -425,10 +425,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>-70633</v>
+        <v>40161</v>
       </c>
       <c r="E3">
-        <v>19912</v>
+        <v>11635</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -448,10 +448,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-32976</v>
+        <v>-24121</v>
       </c>
       <c r="E4">
-        <v>-4809</v>
+        <v>-2334</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -471,7 +471,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>330</v>
+        <v>2030</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -494,7 +494,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>21992</v>
+        <v>22842</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>8255</v>
+        <v>11830</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>498991</v>
+        <v>476402</v>
       </c>
       <c r="E2">
-        <v>163</v>
+        <v>-7195</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -425,10 +425,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>40161</v>
+        <v>181746</v>
       </c>
       <c r="E3">
-        <v>11635</v>
+        <v>39621</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -448,10 +448,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-24121</v>
+        <v>-39187</v>
       </c>
       <c r="E4">
-        <v>-2334</v>
+        <v>-1619</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -471,7 +471,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>2030</v>
+        <v>2660</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -494,7 +494,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>22842</v>
+        <v>19512</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>11830</v>
+        <v>13419</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="6780"/>
@@ -55,13 +55,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,14 +106,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 3" xfId="7"/>
+    <cellStyle name="Currency 2" xfId="4"/>
+    <cellStyle name="Currency 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="عادي 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,7 +410,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>476402</v>
+        <v>446012</v>
       </c>
       <c r="E2">
-        <v>-7195</v>
+        <v>-3254</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -425,10 +466,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>181746</v>
+        <v>262394</v>
       </c>
       <c r="E3">
-        <v>39621</v>
+        <v>26287</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -448,10 +489,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-39187</v>
+        <v>-33905</v>
       </c>
       <c r="E4">
-        <v>-1619</v>
+        <v>-958</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -471,7 +512,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>2660</v>
+        <v>2755</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -517,7 +558,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>13419</v>
+        <v>14169</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -56,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,12 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>446012</v>
+        <v>496725</v>
       </c>
       <c r="E2">
-        <v>-3254</v>
+        <v>4538</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -466,10 +466,10 @@
         <v>3.46</v>
       </c>
       <c r="D3">
-        <v>262394</v>
+        <v>62921</v>
       </c>
       <c r="E3">
-        <v>26287</v>
+        <v>5904</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -489,10 +489,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-33905</v>
+        <v>-28031</v>
       </c>
       <c r="E4">
-        <v>-958</v>
+        <v>-988</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -512,7 +512,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>2755</v>
+        <v>3710</v>
       </c>
       <c r="E5">
         <v>75</v>
@@ -535,7 +535,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>19512</v>
+        <v>16357</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>14169</v>
+        <v>3346</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,6 +96,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,21 +119,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -129,7 +144,9 @@
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="9"/>
     <cellStyle name="عادي 2" xfId="6"/>
+    <cellStyle name="عادي 3" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +427,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>496725</v>
+        <v>501386</v>
       </c>
       <c r="E2">
-        <v>4538</v>
+        <v>-9826</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -463,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="D3">
-        <v>62921</v>
+        <v>-11879</v>
       </c>
       <c r="E3">
-        <v>5904</v>
+        <v>36727</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -489,10 +506,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-28031</v>
+        <v>-16377</v>
       </c>
       <c r="E4">
-        <v>-988</v>
+        <v>-215</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -512,10 +529,10 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>3710</v>
+        <v>3930</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -535,7 +552,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>16357</v>
+        <v>18919</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -558,7 +575,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>3346</v>
+        <v>30380</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,7 +107,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,23 +127,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -145,8 +155,10 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 5" xfId="9"/>
+    <cellStyle name="Normal 6" xfId="11"/>
     <cellStyle name="عادي 2" xfId="6"/>
     <cellStyle name="عادي 3" xfId="10"/>
+    <cellStyle name="عادي 3 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,7 +439,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>501386</v>
+        <v>51546</v>
       </c>
       <c r="E2">
-        <v>-9826</v>
+        <v>1274</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -483,10 +495,10 @@
         <v>3.6</v>
       </c>
       <c r="D3">
-        <v>-11879</v>
+        <v>46430</v>
       </c>
       <c r="E3">
-        <v>36727</v>
+        <v>25964</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -506,10 +518,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-16377</v>
+        <v>37126</v>
       </c>
       <c r="E4">
-        <v>-215</v>
+        <v>-1867</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -529,7 +541,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>3930</v>
+        <v>8670</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -552,7 +564,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>18919</v>
+        <v>12174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -575,7 +587,7 @@
         <v>23.066666600000001</v>
       </c>
       <c r="D7">
-        <v>30380</v>
+        <v>16977</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>51546</v>
+        <v>498309</v>
       </c>
       <c r="E2">
-        <v>1274</v>
+        <v>4989</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -495,10 +495,10 @@
         <v>3.6</v>
       </c>
       <c r="D3">
-        <v>46430</v>
+        <v>76400</v>
       </c>
       <c r="E3">
-        <v>25964</v>
+        <v>12144</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -518,10 +518,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>37126</v>
+        <v>-30677</v>
       </c>
       <c r="E4">
-        <v>-1867</v>
+        <v>-1262</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -541,7 +541,7 @@
         <v>0.947867299</v>
       </c>
       <c r="D5">
-        <v>8670</v>
+        <v>8380</v>
       </c>
       <c r="E5">
         <v>375</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,25 +135,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -156,6 +165,7 @@
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 5" xfId="9"/>
     <cellStyle name="Normal 6" xfId="11"/>
+    <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="عادي 2" xfId="6"/>
     <cellStyle name="عادي 3" xfId="10"/>
     <cellStyle name="عادي 3 2" xfId="12"/>
@@ -439,7 +449,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>498309</v>
+        <v>396076</v>
       </c>
       <c r="E2">
-        <v>4989</v>
+        <v>17263</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -492,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="D3">
-        <v>76400</v>
+        <v>-135703</v>
       </c>
       <c r="E3">
-        <v>12144</v>
+        <v>-4308</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -518,10 +528,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-30677</v>
+        <v>53672</v>
       </c>
       <c r="E4">
-        <v>-1262</v>
+        <v>3127</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -538,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.947867299</v>
+        <v>0.92592592592</v>
       </c>
       <c r="D5">
-        <v>8380</v>
+        <v>48200</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -564,7 +574,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>12174</v>
+        <v>9992</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -584,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>23.066666600000001</v>
+        <v>31.739130434700002</v>
       </c>
       <c r="D7">
-        <v>16977</v>
+        <v>15300</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,26 +143,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -166,9 +176,11 @@
     <cellStyle name="Normal 5" xfId="9"/>
     <cellStyle name="Normal 6" xfId="11"/>
     <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 8" xfId="14"/>
     <cellStyle name="عادي 2" xfId="6"/>
     <cellStyle name="عادي 3" xfId="10"/>
     <cellStyle name="عادي 3 2" xfId="12"/>
+    <cellStyle name="عادي 4" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,7 +461,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,10 +494,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>396076</v>
+        <v>436870</v>
       </c>
       <c r="E2">
-        <v>17263</v>
+        <v>-2050</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -505,10 +517,10 @@
         <v>3.65</v>
       </c>
       <c r="D3">
-        <v>-135703</v>
+        <v>-229715</v>
       </c>
       <c r="E3">
-        <v>-4308</v>
+        <v>8279</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -528,10 +540,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>53672</v>
+        <v>37964</v>
       </c>
       <c r="E4">
-        <v>3127</v>
+        <v>890</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -551,7 +563,7 @@
         <v>0.92592592592</v>
       </c>
       <c r="D5">
-        <v>48200</v>
+        <v>50350</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -597,7 +609,7 @@
         <v>31.739130434700002</v>
       </c>
       <c r="D7">
-        <v>15300</v>
+        <v>38150</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,28 +151,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -177,6 +186,7 @@
     <cellStyle name="Normal 6" xfId="11"/>
     <cellStyle name="Normal 7" xfId="13"/>
     <cellStyle name="Normal 8" xfId="14"/>
+    <cellStyle name="Normal 9" xfId="16"/>
     <cellStyle name="عادي 2" xfId="6"/>
     <cellStyle name="عادي 3" xfId="10"/>
     <cellStyle name="عادي 3 2" xfId="12"/>
@@ -461,7 +471,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -494,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>436870</v>
+        <v>447981</v>
       </c>
       <c r="E2">
-        <v>-2050</v>
+        <v>300</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -517,10 +527,10 @@
         <v>3.65</v>
       </c>
       <c r="D3">
-        <v>-229715</v>
+        <v>-297573</v>
       </c>
       <c r="E3">
-        <v>8279</v>
+        <v>6527</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -540,10 +550,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>37964</v>
+        <v>43484</v>
       </c>
       <c r="E4">
-        <v>890</v>
+        <v>198</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -563,7 +573,7 @@
         <v>0.92592592592</v>
       </c>
       <c r="D5">
-        <v>50350</v>
+        <v>50400</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -586,7 +596,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>9992</v>
+        <v>10492</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -609,7 +619,7 @@
         <v>31.739130434700002</v>
       </c>
       <c r="D7">
-        <v>38150</v>
+        <v>26130</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,34 +159,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
     <cellStyle name="Currency 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="17"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="1"/>
@@ -471,7 +481,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -504,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>447981</v>
+        <v>384148</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -524,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="D3">
-        <v>-297573</v>
+        <v>237962</v>
       </c>
       <c r="E3">
-        <v>6527</v>
+        <v>10556</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -550,10 +560,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>43484</v>
+        <v>12235</v>
       </c>
       <c r="E4">
-        <v>198</v>
+        <v>-846</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -570,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.92592592592</v>
+        <v>1.08</v>
       </c>
       <c r="D5">
-        <v>50400</v>
+        <v>15090</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -596,7 +606,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>10492</v>
+        <v>15892</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -616,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>31.739130434700002</v>
+        <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>26130</v>
+        <v>2500</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>384148</v>
+        <v>505517</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>-5684</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -537,10 +537,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>237962</v>
+        <v>-232152</v>
       </c>
       <c r="E3">
-        <v>10556</v>
+        <v>2543</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -560,7 +560,7 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>12235</v>
+        <v>16610</v>
       </c>
       <c r="E4">
         <v>-846</v>
@@ -583,7 +583,7 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>15090</v>
+        <v>16600</v>
       </c>
       <c r="E5">
         <v>375</v>
@@ -606,7 +606,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>15892</v>
+        <v>10676</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>2500</v>
+        <v>19190</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>16610</v>
       </c>
       <c r="E4">
-        <v>-846</v>
+        <v>3900</v>
       </c>
       <c r="F4">
         <v>13</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,36 +167,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
     <cellStyle name="Currency 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="17"/>
+    <cellStyle name="Normal 11" xfId="18"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="1"/>
@@ -481,7 +491,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>505517</v>
+        <v>457274</v>
       </c>
       <c r="E2">
-        <v>-5684</v>
+        <v>-4997</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -537,10 +547,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>-232152</v>
+        <v>13090</v>
       </c>
       <c r="E3">
-        <v>2543</v>
+        <v>9614</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -560,10 +570,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>16610</v>
+        <v>15660</v>
       </c>
       <c r="E4">
-        <v>3900</v>
+        <v>2755</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -583,10 +593,10 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>16600</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -606,7 +616,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>10676</v>
+        <v>13008</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -629,7 +639,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>19190</v>
+        <v>3335</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>457274</v>
+        <v>541979</v>
       </c>
       <c r="E2">
-        <v>-4997</v>
+        <v>6911</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -547,10 +547,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>13090</v>
+        <v>-55923</v>
       </c>
       <c r="E3">
-        <v>9614</v>
+        <v>-6184</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -570,10 +570,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>15660</v>
+        <v>-32240</v>
       </c>
       <c r="E4">
-        <v>2755</v>
+        <v>-1026</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -593,10 +593,10 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1365</v>
       </c>
       <c r="E5">
-        <v>525</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -616,7 +616,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>13008</v>
+        <v>35163</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>3335</v>
+        <v>20315</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,12 +60,20 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,23 +175,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -191,7 +200,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
@@ -199,6 +208,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="17"/>
     <cellStyle name="Normal 11" xfId="18"/>
+    <cellStyle name="Normal 12" xfId="19"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="1"/>
@@ -491,7 +501,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,7 +509,7 @@
     <col min="3" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -524,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>541979</v>
+        <v>563471</v>
       </c>
       <c r="E2">
-        <v>6911</v>
+        <v>-1517</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -547,10 +557,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>-55923</v>
+        <v>-131256</v>
       </c>
       <c r="E3">
-        <v>-6184</v>
+        <v>13686</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -570,7 +580,7 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-32240</v>
+        <v>-33505</v>
       </c>
       <c r="E4">
         <v>-1026</v>
@@ -593,7 +603,7 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>1365</v>
+        <v>1615</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -616,7 +626,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>35163</v>
+        <v>14833</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -639,7 +649,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>20315</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -60,7 +60,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -175,7 +182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -196,15 +203,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="4"/>
     <cellStyle name="Currency 3" xfId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="17"/>
     <cellStyle name="Normal 11" xfId="18"/>
@@ -501,7 +510,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>563471</v>
+        <v>482608</v>
       </c>
       <c r="E2">
-        <v>-1517</v>
+        <v>3388</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -557,10 +566,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>-131256</v>
+        <v>-605</v>
       </c>
       <c r="E3">
-        <v>13686</v>
+        <v>16137</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -580,10 +589,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-33505</v>
+        <v>3257</v>
       </c>
       <c r="E4">
-        <v>-1026</v>
+        <v>-1633</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -603,10 +612,10 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>1615</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -626,7 +635,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>14833</v>
+        <v>1483</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -649,7 +658,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>49100</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>482608</v>
+        <v>256039</v>
       </c>
       <c r="E2">
-        <v>3388</v>
+        <v>-17672</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -566,10 +566,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>-605</v>
+        <v>1005034</v>
       </c>
       <c r="E3">
-        <v>16137</v>
+        <v>9787</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -589,10 +589,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>3257</v>
+        <v>-29295</v>
       </c>
       <c r="E4">
-        <v>-1633</v>
+        <v>11212</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -612,10 +612,10 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>2055</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -635,7 +635,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>1483</v>
+        <v>2983</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>49100</v>
+        <v>46500</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>256039</v>
+        <v>249602</v>
       </c>
       <c r="E2">
-        <v>-17672</v>
+        <v>-11291</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -566,10 +566,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>1005034</v>
+        <v>1190774</v>
       </c>
       <c r="E3">
-        <v>9787</v>
+        <v>-5193</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -589,10 +589,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-29295</v>
+        <v>-59398</v>
       </c>
       <c r="E4">
-        <v>11212</v>
+        <v>9762</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -612,10 +612,10 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>2055</v>
+        <v>3055</v>
       </c>
       <c r="E5">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -658,10 +658,10 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>46500</v>
+        <v>13100</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F7">
         <v>17</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>249602</v>
+        <v>262642</v>
       </c>
       <c r="E2">
-        <v>-11291</v>
+        <v>-3684</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -566,10 +566,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>1190774</v>
+        <v>1070924</v>
       </c>
       <c r="E3">
-        <v>-5193</v>
+        <v>11237</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -589,10 +589,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-59398</v>
+        <v>-47129</v>
       </c>
       <c r="E4">
-        <v>9762</v>
+        <v>3286</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -612,7 +612,7 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>3055</v>
+        <v>5450</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>2983</v>
+        <v>4018</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>13100</v>
+        <v>8785</v>
       </c>
       <c r="E7">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>17</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -510,12 +510,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -543,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>262642</v>
+        <v>304627</v>
       </c>
       <c r="E2">
-        <v>-3684</v>
+        <v>3587</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -566,10 +567,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>1070924</v>
+        <v>875598</v>
       </c>
       <c r="E3">
-        <v>11237</v>
+        <v>161</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -589,10 +590,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-47129</v>
+        <v>-44254</v>
       </c>
       <c r="E4">
-        <v>3286</v>
+        <v>2420</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -612,7 +613,7 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>5450</v>
+        <v>9170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -635,7 +636,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>4018</v>
+        <v>10968</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -658,7 +659,7 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>8785</v>
+        <v>18015</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/excel/boxes.xlsx
+++ b/excel/boxes.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>304627</v>
+        <v>334757</v>
       </c>
       <c r="E2">
-        <v>3587</v>
+        <v>4663</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -567,10 +567,10 @@
         <v>3.72</v>
       </c>
       <c r="D3">
-        <v>875598</v>
+        <v>650790</v>
       </c>
       <c r="E3">
-        <v>161</v>
+        <v>-9830</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -590,10 +590,10 @@
         <v>0.71</v>
       </c>
       <c r="D4">
-        <v>-44254</v>
+        <v>-25940</v>
       </c>
       <c r="E4">
-        <v>2420</v>
+        <v>-411</v>
       </c>
       <c r="F4">
         <v>13</v>
@@ -613,7 +613,7 @@
         <v>1.08</v>
       </c>
       <c r="D5">
-        <v>9170</v>
+        <v>11300</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>3.83783783783</v>
       </c>
       <c r="D6">
-        <v>10968</v>
+        <v>10733</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -659,10 +659,10 @@
         <v>32.3478260869</v>
       </c>
       <c r="D7">
-        <v>18015</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F7">
         <v>17</v>
